--- a/duke_res.xlsx
+++ b/duke_res.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62DD2F6-F63C-483D-83BE-451117A0D9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7800" windowHeight="6228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7800" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bipcc" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>IDF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,23 +471,63 @@
   </si>
   <si>
     <t>threshold = [inf]</t>
+  </si>
+  <si>
+    <t>30fps, separate_icam, fake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold = [20x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30fps, separate_icam, fake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam4 better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam4,6 better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold = [10x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam3,4 better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold = [99.9%,10x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold = [99.9%,50x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rerun:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,7 +535,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,7 +598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -836,16 +875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>54.98</v>
       </c>
@@ -867,7 +906,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>51.81</v>
       </c>
@@ -888,21 +927,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>49.19</v>
       </c>
@@ -924,7 +964,7 @@
         <v>45.43</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -932,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -940,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -948,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -956,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="35.25" customHeight="1">
+    <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -973,7 +1013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="35.25" customHeight="1">
+    <row r="9" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -990,7 +1030,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1047,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1045,7 +1085,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1119,7 @@
         <v>77.22</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1148,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -1131,7 +1171,7 @@
         <v>76.959999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
@@ -1154,7 +1194,7 @@
         <v>78.92</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1177,7 +1217,7 @@
         <v>77.760000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1240,7 @@
         <v>72.37</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1269,7 @@
         <v>70.13</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1292,7 @@
         <v>79.319999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -1275,7 +1315,7 @@
         <v>80.94</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>64</v>
       </c>
@@ -1298,7 +1338,7 @@
         <v>81.28</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1321,7 +1361,7 @@
         <v>79.62</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1385,7 @@
         <v>79.77</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>53</v>
       </c>
@@ -1368,7 +1408,7 @@
         <v>78.09</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1437,7 @@
         <v>77.680000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1411,7 +1451,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>65</v>
       </c>
@@ -1425,7 +1465,7 @@
         <v>77.55</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
@@ -1439,7 +1479,7 @@
         <v>77.83</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
@@ -1453,7 +1493,7 @@
         <v>77.739999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1507,7 @@
         <v>77.44</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1533,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1559,7 @@
         <v>77.22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1585,7 @@
         <v>77.33</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1568,7 +1608,7 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>67</v>
       </c>
@@ -1591,7 +1631,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
@@ -1614,7 +1654,7 @@
         <v>81.010000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1">
+    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
@@ -1637,7 +1677,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="4" customFormat="1">
+    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>71</v>
       </c>
@@ -1660,7 +1700,7 @@
         <v>81.13</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
@@ -1683,7 +1723,7 @@
         <v>81.010000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="4" customFormat="1">
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>73</v>
       </c>
@@ -1709,7 +1749,7 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>68</v>
       </c>
@@ -1732,7 +1772,7 @@
         <v>80.319999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>69</v>
       </c>
@@ -1755,7 +1795,7 @@
         <v>79.319999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>72</v>
       </c>
@@ -1778,7 +1818,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>74</v>
       </c>
@@ -1801,7 +1841,7 @@
         <v>78.650000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -1824,7 +1864,7 @@
         <v>78.349999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>50</v>
       </c>
@@ -1847,7 +1887,7 @@
         <v>78.81</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>56</v>
       </c>
@@ -1870,7 +1910,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1887,7 +1927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1944,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1921,12 +1961,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L61" t="s">
         <v>83</v>
       </c>
@@ -1934,7 +1974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -1948,7 +1988,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -1978,7 +2018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -2004,7 +2044,7 @@
         <v>81.31</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -2039,7 +2079,7 @@
         <v>97.56</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>89</v>
       </c>
@@ -2071,7 +2111,7 @@
         <v>98.69</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>91</v>
       </c>
@@ -2103,7 +2143,7 @@
         <v>99.15</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>94</v>
       </c>
@@ -2129,7 +2169,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
@@ -2158,7 +2198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>109</v>
       </c>
@@ -2184,7 +2224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>110</v>
       </c>
@@ -2210,7 +2250,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>102</v>
       </c>
@@ -2236,7 +2276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>104</v>
       </c>
@@ -2262,7 +2302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>106</v>
       </c>
@@ -2288,7 +2328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>108</v>
       </c>
@@ -2314,7 +2354,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>111</v>
       </c>
@@ -2340,7 +2380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>118</v>
       </c>
@@ -2366,7 +2406,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>97</v>
       </c>
@@ -2383,7 +2423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>101</v>
       </c>
@@ -2400,7 +2440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>100</v>
       </c>
@@ -2417,7 +2457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="2:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>105</v>
       </c>
@@ -2434,7 +2474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>107</v>
       </c>
@@ -2451,7 +2491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>100</v>
       </c>
@@ -2468,7 +2508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>107</v>
       </c>
@@ -2485,7 +2525,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>112</v>
       </c>
@@ -2502,7 +2542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="2:12">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>119</v>
       </c>
@@ -2515,11 +2555,14 @@
       <c r="F87">
         <v>87.3</v>
       </c>
+      <c r="H87" t="s">
+        <v>129</v>
+      </c>
       <c r="L87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>113</v>
       </c>
@@ -2532,47 +2575,62 @@
       <c r="F88">
         <v>87.5</v>
       </c>
+      <c r="H88">
+        <v>88.4</v>
+      </c>
+      <c r="I88">
+        <v>89.4</v>
+      </c>
+      <c r="J88">
+        <v>87.4</v>
+      </c>
       <c r="L88" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="H89">
+        <v>88.4</v>
+      </c>
+      <c r="I89">
+        <v>89.4</v>
+      </c>
+      <c r="J89">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>114</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>88.4</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>89.5</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>87.4</v>
       </c>
-      <c r="L89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12">
-      <c r="B90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90">
-        <v>88.3</v>
-      </c>
-      <c r="E90">
+      <c r="H90">
+        <v>88.4</v>
+      </c>
+      <c r="I90">
         <v>89.4</v>
       </c>
-      <c r="F90">
-        <v>87.3</v>
+      <c r="J90">
+        <v>87.4</v>
       </c>
       <c r="L90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:12">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91">
         <v>88.3</v>
@@ -2581,15 +2639,15 @@
         <v>89.4</v>
       </c>
       <c r="F91">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="L91" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="2:12">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92">
         <v>88.3</v>
@@ -2602,6 +2660,99 @@
       </c>
       <c r="L92" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93">
+        <v>88.3</v>
+      </c>
+      <c r="E93">
+        <v>89.4</v>
+      </c>
+      <c r="F93">
+        <v>87.2</v>
+      </c>
+      <c r="L93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94">
+        <v>88.3</v>
+      </c>
+      <c r="E94">
+        <v>89.5</v>
+      </c>
+      <c r="F94">
+        <v>87.2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>124</v>
+      </c>
+      <c r="L94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95">
+        <v>88.3</v>
+      </c>
+      <c r="E95">
+        <v>89.4</v>
+      </c>
+      <c r="F95">
+        <v>87.1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>123</v>
+      </c>
+      <c r="L95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96">
+        <v>88.2</v>
+      </c>
+      <c r="E96">
+        <v>89.4</v>
+      </c>
+      <c r="F96">
+        <v>87.1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>126</v>
+      </c>
+      <c r="L96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L98" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
